--- a/attendance-files/TOC/TOC Attendance.xlsx
+++ b/attendance-files/TOC/TOC Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="182">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -962,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1073,20 +1073,23 @@
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="19" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -1629,7 +1632,7 @@
       </c>
       <c r="F7" s="36">
         <f t="shared" ref="F7:F92" si="2">COUNTIF(G7:Z7,"P")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>42</v>
@@ -1646,23 +1649,31 @@
       <c r="K7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
+      <c r="L7" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P7" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
       <c r="AA7" s="19"/>
     </row>
     <row r="8">
@@ -1682,7 +1693,7 @@
       </c>
       <c r="F8" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>42</v>
@@ -1699,27 +1710,31 @@
       <c r="K8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="40" t="s">
+      <c r="L8" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="36"/>
+      <c r="N8" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="O8" s="37" t="s">
         <v>43</v>
       </c>
       <c r="P8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
       <c r="AA8" s="19"/>
     </row>
     <row r="9">
@@ -1739,7 +1754,7 @@
       </c>
       <c r="F9" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>42</v>
@@ -1753,26 +1768,34 @@
       <c r="J9" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+      <c r="L9" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P9" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
       <c r="AA9" s="19"/>
     </row>
     <row r="10">
@@ -1792,7 +1815,7 @@
       </c>
       <c r="F10" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>42</v>
@@ -1809,25 +1832,31 @@
       <c r="K10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="40" t="s">
+      <c r="L10" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
+      <c r="N10" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
       <c r="AA10" s="19"/>
     </row>
     <row r="11">
@@ -1847,7 +1876,7 @@
       </c>
       <c r="F11" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>42</v>
@@ -1864,27 +1893,31 @@
       <c r="K11" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="40" t="s">
+      <c r="L11" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="40" t="s">
+      <c r="N11" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="36"/>
-      <c r="P11" s="40" t="s">
+      <c r="O11" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
       <c r="AA11" s="19"/>
     </row>
     <row r="12">
@@ -1904,7 +1937,7 @@
       </c>
       <c r="F12" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>42</v>
@@ -1921,23 +1954,31 @@
       <c r="K12" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
+      <c r="L12" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P12" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
       <c r="AA12" s="19"/>
     </row>
     <row r="13">
@@ -1957,7 +1998,7 @@
       </c>
       <c r="F13" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>42</v>
@@ -1974,23 +2015,31 @@
       <c r="K13" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="40" t="s">
+      <c r="L13" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
       <c r="AA13" s="19"/>
     </row>
     <row r="14">
@@ -2006,11 +2055,11 @@
       <c r="D14" s="35"/>
       <c r="E14" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>42</v>
@@ -2027,23 +2076,33 @@
       <c r="K14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="40" t="s">
+      <c r="L14" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
+      <c r="Q14" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
       <c r="AA14" s="19"/>
     </row>
     <row r="15">
@@ -2063,7 +2122,7 @@
       </c>
       <c r="F15" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>42</v>
@@ -2080,23 +2139,31 @@
       <c r="K15" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="40" t="s">
+      <c r="L15" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
       <c r="AA15" s="19"/>
     </row>
     <row r="16">
@@ -2116,7 +2183,7 @@
       </c>
       <c r="F16" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>42</v>
@@ -2136,24 +2203,28 @@
       <c r="L16" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="40" t="s">
+      <c r="M16" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
+      <c r="N16" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P16" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
       <c r="AA16" s="19"/>
     </row>
     <row r="17">
@@ -2173,7 +2244,7 @@
       </c>
       <c r="F17" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>42</v>
@@ -2190,27 +2261,31 @@
       <c r="K17" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="36"/>
-      <c r="M17" s="40" t="s">
+      <c r="L17" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N17" s="36"/>
+      <c r="N17" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="O17" s="37" t="s">
         <v>43</v>
       </c>
       <c r="P17" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
       <c r="AA17" s="19"/>
     </row>
     <row r="18">
@@ -2230,7 +2305,7 @@
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>42</v>
@@ -2247,23 +2322,31 @@
       <c r="K18" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="40" t="s">
+      <c r="L18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
       <c r="AA18" s="19"/>
     </row>
     <row r="19">
@@ -2279,11 +2362,11 @@
       <c r="D19" s="35"/>
       <c r="E19" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>42</v>
@@ -2303,22 +2386,30 @@
       <c r="L19" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="36"/>
+      <c r="M19" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P19" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
+      <c r="Q19" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
       <c r="AA19" s="19"/>
     </row>
     <row r="20">
@@ -2334,11 +2425,11 @@
       <c r="D20" s="35"/>
       <c r="E20" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>42</v>
@@ -2355,23 +2446,33 @@
       <c r="K20" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="40" t="s">
+      <c r="L20" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
+      <c r="Q20" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
       <c r="AA20" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2387,11 +2488,11 @@
       <c r="D21" s="35"/>
       <c r="E21" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>42</v>
@@ -2408,23 +2509,33 @@
       <c r="K21" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
+      <c r="L21" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P21" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
+      <c r="Q21" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
       <c r="AA21" s="19"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2444,7 +2555,7 @@
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>42</v>
@@ -2461,23 +2572,31 @@
       <c r="K22" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="38"/>
+      <c r="L22" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P22" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
       <c r="AA22" s="19"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2497,7 +2616,7 @@
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>42</v>
@@ -2514,23 +2633,31 @@
       <c r="K23" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
+      <c r="L23" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P23" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
       <c r="AA23" s="19"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2550,7 +2677,7 @@
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>42</v>
@@ -2567,27 +2694,31 @@
       <c r="K24" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="40" t="s">
+      <c r="L24" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="39" t="s">
         <v>43</v>
       </c>
       <c r="O24" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="P24" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
+      <c r="P24" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
       <c r="AA24" s="19"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -2607,7 +2738,7 @@
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>42</v>
@@ -2624,23 +2755,31 @@
       <c r="K25" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="40" t="s">
+      <c r="L25" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
       <c r="AA25" s="19"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -2660,7 +2799,7 @@
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>42</v>
@@ -2680,22 +2819,28 @@
       <c r="L26" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="40" t="s">
+      <c r="M26" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
       <c r="AA26" s="19"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -2711,11 +2856,11 @@
       <c r="D27" s="35"/>
       <c r="E27" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>42</v>
@@ -2732,23 +2877,33 @@
       <c r="K27" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="40" t="s">
+      <c r="L27" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
+      <c r="Q27" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
       <c r="AA27" s="19"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -2768,7 +2923,7 @@
       </c>
       <c r="F28" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>42</v>
@@ -2785,25 +2940,31 @@
       <c r="K28" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="38"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
+      <c r="L28" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="O28" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="P28" s="40" t="s">
+      <c r="P28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
       <c r="AA28" s="19"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -2819,11 +2980,11 @@
       <c r="D29" s="35"/>
       <c r="E29" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>42</v>
@@ -2840,23 +3001,33 @@
       <c r="K29" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L29" s="38"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="40" t="s">
+      <c r="L29" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
+      <c r="Q29" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
       <c r="AA29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -2876,7 +3047,7 @@
       </c>
       <c r="F30" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>42</v>
@@ -2896,26 +3067,28 @@
       <c r="L30" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M30" s="40" t="s">
+      <c r="M30" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N30" s="40" t="s">
+      <c r="N30" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="36"/>
+      <c r="O30" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P30" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
       <c r="AA30" s="19"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -2935,7 +3108,7 @@
       </c>
       <c r="F31" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>42</v>
@@ -2952,23 +3125,31 @@
       <c r="K31" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L31" s="36"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="40" t="s">
+      <c r="L31" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
       <c r="AA31" s="19"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -2984,11 +3165,11 @@
       <c r="D32" s="35"/>
       <c r="E32" s="36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>42</v>
@@ -3005,23 +3186,33 @@
       <c r="K32" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L32" s="38"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="40" t="s">
+      <c r="L32" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
+      <c r="Q32" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
       <c r="AA32" s="19"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3041,7 +3232,7 @@
       </c>
       <c r="F33" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>42</v>
@@ -3058,27 +3249,31 @@
       <c r="K33" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L33" s="38"/>
-      <c r="M33" s="40" t="s">
+      <c r="L33" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N33" s="36"/>
+      <c r="N33" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="O33" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="P33" s="40" t="s">
+      <c r="P33" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
       <c r="AA33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3098,7 +3293,7 @@
       </c>
       <c r="F34" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>42</v>
@@ -3115,25 +3310,31 @@
       <c r="K34" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L34" s="36"/>
-      <c r="M34" s="40" t="s">
+      <c r="L34" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N34" s="36"/>
-      <c r="O34" s="38"/>
+      <c r="N34" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P34" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
       <c r="AA34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3153,7 +3354,7 @@
       </c>
       <c r="F35" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>42</v>
@@ -3170,25 +3371,31 @@
       <c r="K35" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="40" t="s">
+      <c r="L35" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="40" t="s">
+      <c r="N35" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="39"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
       <c r="AA35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3204,11 +3411,11 @@
       <c r="D36" s="35"/>
       <c r="E36" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>42</v>
@@ -3225,23 +3432,33 @@
       <c r="K36" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="36"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
+      <c r="L36" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
       <c r="AA36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -3261,7 +3478,7 @@
       </c>
       <c r="F37" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>42</v>
@@ -3269,7 +3486,7 @@
       <c r="H37" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I37" s="40" t="s">
+      <c r="I37" s="39" t="s">
         <v>43</v>
       </c>
       <c r="J37" s="37" t="s">
@@ -3281,24 +3498,28 @@
       <c r="L37" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="40" t="s">
+      <c r="M37" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="40" t="s">
+      <c r="N37" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="39"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
       <c r="AA37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -3318,7 +3539,7 @@
       </c>
       <c r="F38" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>42</v>
@@ -3335,23 +3556,31 @@
       <c r="K38" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="40" t="s">
+      <c r="L38" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="39"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
       <c r="AA38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -3367,11 +3596,11 @@
       <c r="D39" s="35"/>
       <c r="E39" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>42</v>
@@ -3388,23 +3617,33 @@
       <c r="K39" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="36"/>
+      <c r="L39" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P39" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
+      <c r="Q39" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
       <c r="AA39" s="19"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -3424,7 +3663,7 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>42</v>
@@ -3444,22 +3683,28 @@
       <c r="L40" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q40" s="39"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
+      <c r="M40" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P40" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
       <c r="AA40" s="19"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -3479,7 +3724,7 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>42</v>
@@ -3496,23 +3741,31 @@
       <c r="K41" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="36"/>
+      <c r="L41" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P41" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="39"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
       <c r="AA41" s="19"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -3528,11 +3781,11 @@
       <c r="D42" s="35"/>
       <c r="E42" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>42</v>
@@ -3549,23 +3802,33 @@
       <c r="K42" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
+      <c r="L42" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O42" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P42" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="39"/>
+      <c r="Q42" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
       <c r="AA42" s="19"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -3585,7 +3848,7 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>42</v>
@@ -3602,23 +3865,31 @@
       <c r="K43" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="L43" s="36"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="36"/>
+      <c r="L43" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O43" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P43" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
-      <c r="Z43" s="39"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
       <c r="AA43" s="19"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -3634,11 +3905,11 @@
       <c r="D44" s="35"/>
       <c r="E44" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>42</v>
@@ -3655,23 +3926,33 @@
       <c r="K44" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="L44" s="36"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="40" t="s">
+      <c r="L44" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M44" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O44" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P44" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
-      <c r="Z44" s="39"/>
+      <c r="Q44" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
       <c r="AA44" s="19"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -3691,7 +3972,7 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>42</v>
@@ -3708,23 +3989,31 @@
       <c r="K45" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
+      <c r="L45" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M45" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N45" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P45" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
-      <c r="Z45" s="39"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="38"/>
       <c r="AA45" s="19"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -3744,7 +4033,7 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>42</v>
@@ -3761,25 +4050,31 @@
       <c r="K46" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="38"/>
+      <c r="L46" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M46" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="O46" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="P46" s="40" t="s">
+      <c r="P46" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="39"/>
-      <c r="Y46" s="39"/>
-      <c r="Z46" s="39"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
       <c r="AA46" s="19"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -3799,7 +4094,7 @@
       </c>
       <c r="F47" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>42</v>
@@ -3816,23 +4111,31 @@
       <c r="K47" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="L47" s="36"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="40" t="s">
+      <c r="L47" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M47" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P47" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
-      <c r="Z47" s="39"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="38"/>
       <c r="AA47" s="19"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -3852,7 +4155,7 @@
       </c>
       <c r="F48" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>42</v>
@@ -3869,23 +4172,31 @@
       <c r="K48" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L48" s="38"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="40" t="s">
+      <c r="L48" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M48" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N48" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O48" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P48" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="39"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
       <c r="AA48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -3905,7 +4216,7 @@
       </c>
       <c r="F49" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>42</v>
@@ -3922,23 +4233,31 @@
       <c r="K49" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="38"/>
+      <c r="L49" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P49" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
-      <c r="Z49" s="39"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="38"/>
       <c r="AA49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -3958,7 +4277,7 @@
       </c>
       <c r="F50" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>42</v>
@@ -3975,23 +4294,31 @@
       <c r="K50" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="40" t="s">
+      <c r="L50" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M50" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N50" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O50" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P50" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
-      <c r="Z50" s="39"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
       <c r="AA50" s="19"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -4011,7 +4338,7 @@
       </c>
       <c r="F51" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>42</v>
@@ -4028,23 +4355,31 @@
       <c r="K51" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="40" t="s">
+      <c r="L51" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N51" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O51" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P51" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
-      <c r="Z51" s="39"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="38"/>
+      <c r="Z51" s="38"/>
       <c r="AA51" s="19"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -4064,7 +4399,7 @@
       </c>
       <c r="F52" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>42</v>
@@ -4081,23 +4416,31 @@
       <c r="K52" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="40" t="s">
+      <c r="L52" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N52" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O52" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P52" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
-      <c r="Z52" s="39"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38"/>
+      <c r="Y52" s="38"/>
+      <c r="Z52" s="38"/>
       <c r="AA52" s="19"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -4117,7 +4460,7 @@
       </c>
       <c r="F53" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>42</v>
@@ -4134,27 +4477,31 @@
       <c r="K53" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L53" s="36"/>
-      <c r="M53" s="40" t="s">
+      <c r="L53" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M53" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40" t="s">
+      <c r="N53" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O53" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="P53" s="40" t="s">
+      <c r="P53" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
-      <c r="Z53" s="39"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="38"/>
+      <c r="Z53" s="38"/>
       <c r="AA53" s="19"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -4170,11 +4517,11 @@
       <c r="D54" s="35"/>
       <c r="E54" s="36">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>42</v>
@@ -4194,26 +4541,30 @@
       <c r="L54" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40" t="s">
+      <c r="M54" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N54" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="O54" s="40" t="s">
+      <c r="O54" s="39" t="s">
         <v>43</v>
       </c>
       <c r="P54" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q54" s="39"/>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="39"/>
+      <c r="Q54" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="38"/>
+      <c r="V54" s="38"/>
+      <c r="W54" s="38"/>
+      <c r="X54" s="38"/>
+      <c r="Y54" s="38"/>
+      <c r="Z54" s="38"/>
       <c r="AA54" s="19"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -4233,7 +4584,7 @@
       </c>
       <c r="F55" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>42</v>
@@ -4250,23 +4601,31 @@
       <c r="K55" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L55" s="38"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="40" t="s">
+      <c r="L55" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M55" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N55" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O55" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P55" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
-      <c r="Z55" s="39"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="38"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="38"/>
+      <c r="Y55" s="38"/>
+      <c r="Z55" s="38"/>
       <c r="AA55" s="19"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -4286,7 +4645,7 @@
       </c>
       <c r="F56" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>42</v>
@@ -4303,25 +4662,31 @@
       <c r="K56" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40" t="s">
+      <c r="L56" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M56" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N56" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O56" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="P56" s="40" t="s">
+      <c r="P56" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="39"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="38"/>
       <c r="AA56" s="19"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -4337,11 +4702,11 @@
       <c r="D57" s="35"/>
       <c r="E57" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G57" s="37" t="s">
         <v>42</v>
@@ -4358,23 +4723,33 @@
       <c r="K57" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L57" s="38"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="40" t="s">
+      <c r="L57" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M57" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N57" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O57" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P57" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
-      <c r="Z57" s="39"/>
+      <c r="Q57" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="38"/>
+      <c r="Z57" s="38"/>
       <c r="AA57" s="19"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -4390,11 +4765,11 @@
       <c r="D58" s="35"/>
       <c r="E58" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G58" s="37" t="s">
         <v>42</v>
@@ -4411,23 +4786,33 @@
       <c r="K58" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="36"/>
+      <c r="L58" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M58" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N58" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O58" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P58" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="39"/>
+      <c r="Q58" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="38"/>
+      <c r="V58" s="38"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="38"/>
+      <c r="Y58" s="38"/>
+      <c r="Z58" s="38"/>
       <c r="AA58" s="19"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -4447,7 +4832,7 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>42</v>
@@ -4464,27 +4849,31 @@
       <c r="K59" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L59" s="36"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="40" t="s">
+      <c r="L59" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M59" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N59" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="O59" s="40" t="s">
+      <c r="O59" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="P59" s="40" t="s">
+      <c r="P59" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
+      <c r="Y59" s="38"/>
+      <c r="Z59" s="38"/>
       <c r="AA59" s="19"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -4500,11 +4889,11 @@
       <c r="D60" s="35"/>
       <c r="E60" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>42</v>
@@ -4521,23 +4910,33 @@
       <c r="K60" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L60" s="38"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="40" t="s">
+      <c r="L60" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M60" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N60" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O60" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P60" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
+      <c r="Q60" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38"/>
+      <c r="Y60" s="38"/>
+      <c r="Z60" s="38"/>
       <c r="AA60" s="19"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -4557,7 +4956,7 @@
       </c>
       <c r="F61" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>42</v>
@@ -4574,23 +4973,31 @@
       <c r="K61" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="40" t="s">
+      <c r="L61" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M61" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N61" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O61" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P61" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="39"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="38"/>
+      <c r="Z61" s="38"/>
       <c r="AA61" s="19"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -4610,7 +5017,7 @@
       </c>
       <c r="F62" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>42</v>
@@ -4630,22 +5037,28 @@
       <c r="L62" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="40" t="s">
+      <c r="M62" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N62" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O62" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P62" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="39"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="38"/>
       <c r="AA62" s="19"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -4661,11 +5074,11 @@
       <c r="D63" s="35"/>
       <c r="E63" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>42</v>
@@ -4682,23 +5095,33 @@
       <c r="K63" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L63" s="36"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
+      <c r="L63" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M63" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N63" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O63" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P63" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="39"/>
+      <c r="Q63" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="38"/>
+      <c r="Z63" s="38"/>
       <c r="AA63" s="19"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -4718,7 +5141,7 @@
       </c>
       <c r="F64" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>42</v>
@@ -4735,23 +5158,31 @@
       <c r="K64" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="40" t="s">
+      <c r="L64" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M64" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N64" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O64" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P64" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q64" s="39"/>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
-      <c r="Z64" s="39"/>
+      <c r="Q64" s="38"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="38"/>
+      <c r="T64" s="38"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="38"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="38"/>
+      <c r="Y64" s="38"/>
+      <c r="Z64" s="38"/>
       <c r="AA64" s="19"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -4767,11 +5198,11 @@
       <c r="D65" s="35"/>
       <c r="E65" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>42</v>
@@ -4788,25 +5219,33 @@
       <c r="K65" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40" t="s">
+      <c r="L65" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M65" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N65" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O65" s="39" t="s">
         <v>43</v>
       </c>
       <c r="P65" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q65" s="39"/>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="39"/>
-      <c r="Y65" s="39"/>
-      <c r="Z65" s="39"/>
+      <c r="Q65" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
       <c r="AA65" s="19"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -4826,7 +5265,7 @@
       </c>
       <c r="F66" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>42</v>
@@ -4846,22 +5285,28 @@
       <c r="L66" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="40" t="s">
+      <c r="M66" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N66" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O66" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P66" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q66" s="39"/>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
-      <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
-      <c r="Z66" s="39"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38"/>
+      <c r="Y66" s="38"/>
+      <c r="Z66" s="38"/>
       <c r="AA66" s="19"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -4881,7 +5326,7 @@
       </c>
       <c r="F67" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>42</v>
@@ -4898,23 +5343,31 @@
       <c r="K67" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="40" t="s">
+      <c r="L67" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M67" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N67" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P67" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
-      <c r="Z67" s="39"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="38"/>
+      <c r="Y67" s="38"/>
+      <c r="Z67" s="38"/>
       <c r="AA67" s="19"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -4934,7 +5387,7 @@
       </c>
       <c r="F68" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>42</v>
@@ -4951,23 +5404,31 @@
       <c r="K68" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="40" t="s">
+      <c r="L68" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M68" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N68" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O68" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P68" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
-      <c r="Z68" s="39"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="38"/>
+      <c r="Y68" s="38"/>
+      <c r="Z68" s="38"/>
       <c r="AA68" s="19"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -4987,7 +5448,7 @@
       </c>
       <c r="F69" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G69" s="37" t="s">
         <v>42</v>
@@ -5004,25 +5465,31 @@
       <c r="K69" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L69" s="36"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="40" t="s">
+      <c r="L69" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M69" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N69" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="O69" s="36"/>
-      <c r="P69" s="40" t="s">
+      <c r="O69" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P69" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
-      <c r="Z69" s="39"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="38"/>
       <c r="AA69" s="19"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -5038,11 +5505,11 @@
       <c r="D70" s="35"/>
       <c r="E70" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>42</v>
@@ -5059,23 +5526,33 @@
       <c r="K70" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="36"/>
-      <c r="P70" s="40" t="s">
+      <c r="L70" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M70" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N70" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O70" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P70" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="39"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
-      <c r="Z70" s="39"/>
+      <c r="Q70" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="38"/>
+      <c r="Z70" s="38"/>
       <c r="AA70" s="19"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -5095,7 +5572,7 @@
       </c>
       <c r="F71" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>42</v>
@@ -5112,25 +5589,31 @@
       <c r="K71" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="40" t="s">
+      <c r="L71" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M71" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N71" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="O71" s="38"/>
-      <c r="P71" s="40" t="s">
+      <c r="O71" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P71" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
-      <c r="W71" s="39"/>
-      <c r="X71" s="39"/>
-      <c r="Y71" s="39"/>
-      <c r="Z71" s="39"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="38"/>
+      <c r="X71" s="38"/>
+      <c r="Y71" s="38"/>
+      <c r="Z71" s="38"/>
       <c r="AA71" s="19"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -5150,7 +5633,7 @@
       </c>
       <c r="F72" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>42</v>
@@ -5167,23 +5650,31 @@
       <c r="K72" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L72" s="36"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
+      <c r="L72" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M72" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N72" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O72" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P72" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="39"/>
-      <c r="X72" s="39"/>
-      <c r="Y72" s="39"/>
-      <c r="Z72" s="39"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="38"/>
+      <c r="Z72" s="38"/>
       <c r="AA72" s="19"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -5199,11 +5690,11 @@
       <c r="D73" s="35"/>
       <c r="E73" s="36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>42</v>
@@ -5220,23 +5711,33 @@
       <c r="K73" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L73" s="38"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="40" t="s">
+      <c r="L73" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M73" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N73" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O73" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P73" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="39"/>
-      <c r="Z73" s="39"/>
+      <c r="Q73" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="38"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="38"/>
+      <c r="Y73" s="38"/>
+      <c r="Z73" s="38"/>
       <c r="AA73" s="19"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -5256,7 +5757,7 @@
       </c>
       <c r="F74" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>42</v>
@@ -5273,23 +5774,31 @@
       <c r="K74" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="36"/>
+      <c r="L74" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M74" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N74" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O74" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="P74" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
-      <c r="Y74" s="39"/>
-      <c r="Z74" s="39"/>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="38"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="38"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="38"/>
+      <c r="X74" s="38"/>
+      <c r="Y74" s="38"/>
+      <c r="Z74" s="38"/>
       <c r="AA74" s="19"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -5309,7 +5818,7 @@
       </c>
       <c r="F75" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>42</v>
@@ -5326,25 +5835,31 @@
       <c r="K75" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L75" s="36"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40" t="s">
+      <c r="L75" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M75" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N75" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O75" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="P75" s="40" t="s">
+      <c r="P75" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="39"/>
-      <c r="Y75" s="39"/>
-      <c r="Z75" s="39"/>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="38"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="38"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="38"/>
+      <c r="Y75" s="38"/>
+      <c r="Z75" s="38"/>
       <c r="AA75" s="19"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -5364,7 +5879,7 @@
       </c>
       <c r="F76" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G76" s="37" t="s">
         <v>42</v>
@@ -5381,25 +5896,31 @@
       <c r="K76" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40" t="s">
+      <c r="L76" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M76" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N76" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O76" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="P76" s="40" t="s">
+      <c r="P76" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
-      <c r="Z76" s="39"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="38"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="38"/>
+      <c r="Y76" s="38"/>
+      <c r="Z76" s="38"/>
       <c r="AA76" s="19"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -5419,32 +5940,32 @@
       </c>
       <c r="G77" s="37"/>
       <c r="H77" s="37"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
       <c r="K77" s="36"/>
       <c r="L77" s="36"/>
       <c r="M77" s="36"/>
       <c r="N77" s="36"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
-      <c r="S77" s="39"/>
-      <c r="T77" s="39"/>
-      <c r="U77" s="39"/>
-      <c r="V77" s="39"/>
-      <c r="W77" s="39"/>
-      <c r="X77" s="39"/>
-      <c r="Y77" s="39"/>
-      <c r="Z77" s="39"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="38"/>
+      <c r="U77" s="38"/>
+      <c r="V77" s="38"/>
+      <c r="W77" s="38"/>
+      <c r="X77" s="38"/>
+      <c r="Y77" s="38"/>
+      <c r="Z77" s="38"/>
       <c r="AA77" s="19"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="36">
         <v>72.0</v>
       </c>
-      <c r="B78" s="43"/>
-      <c r="C78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="42"/>
       <c r="E78" s="36">
         <f t="shared" si="1"/>
@@ -5461,27 +5982,27 @@
       <c r="K78" s="36"/>
       <c r="L78" s="36"/>
       <c r="M78" s="36"/>
-      <c r="N78" s="38"/>
+      <c r="N78" s="43"/>
       <c r="O78" s="36"/>
       <c r="P78" s="36"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
-      <c r="V78" s="39"/>
-      <c r="W78" s="39"/>
-      <c r="X78" s="39"/>
-      <c r="Y78" s="39"/>
-      <c r="Z78" s="39"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="38"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="38"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="38"/>
+      <c r="Y78" s="38"/>
+      <c r="Z78" s="38"/>
       <c r="AA78" s="19"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="36">
         <v>73.0</v>
       </c>
-      <c r="B79" s="45"/>
-      <c r="C79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="42"/>
       <c r="E79" s="36">
         <f t="shared" si="1"/>
@@ -5500,25 +6021,25 @@
       <c r="M79" s="36"/>
       <c r="N79" s="36"/>
       <c r="O79" s="36"/>
-      <c r="P79" s="38"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
-      <c r="Z79" s="39"/>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="38"/>
+      <c r="U79" s="38"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="38"/>
+      <c r="X79" s="38"/>
+      <c r="Y79" s="38"/>
+      <c r="Z79" s="38"/>
       <c r="AA79" s="19"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="36">
         <v>74.0</v>
       </c>
-      <c r="B80" s="45"/>
-      <c r="C80" s="46"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="47"/>
       <c r="D80" s="42"/>
       <c r="E80" s="36">
         <f t="shared" si="1"/>
@@ -5533,29 +6054,29 @@
       <c r="I80" s="36"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="38"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
       <c r="N80" s="36"/>
       <c r="O80" s="36"/>
       <c r="P80" s="36"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="39"/>
-      <c r="S80" s="39"/>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
-      <c r="W80" s="39"/>
-      <c r="X80" s="39"/>
-      <c r="Y80" s="39"/>
-      <c r="Z80" s="39"/>
+      <c r="Q80" s="38"/>
+      <c r="R80" s="38"/>
+      <c r="S80" s="38"/>
+      <c r="T80" s="38"/>
+      <c r="U80" s="38"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="38"/>
+      <c r="X80" s="38"/>
+      <c r="Y80" s="38"/>
+      <c r="Z80" s="38"/>
       <c r="AA80" s="19"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="36">
         <v>75.0</v>
       </c>
-      <c r="B81" s="45"/>
-      <c r="C81" s="46"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="47"/>
       <c r="D81" s="42"/>
       <c r="E81" s="36">
         <f t="shared" si="1"/>
@@ -5574,25 +6095,25 @@
       <c r="M81" s="36"/>
       <c r="N81" s="36"/>
       <c r="O81" s="36"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="39"/>
-      <c r="S81" s="39"/>
-      <c r="T81" s="39"/>
-      <c r="U81" s="39"/>
-      <c r="V81" s="39"/>
-      <c r="W81" s="39"/>
-      <c r="X81" s="39"/>
-      <c r="Y81" s="39"/>
-      <c r="Z81" s="39"/>
+      <c r="P81" s="43"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="38"/>
+      <c r="U81" s="38"/>
+      <c r="V81" s="38"/>
+      <c r="W81" s="38"/>
+      <c r="X81" s="38"/>
+      <c r="Y81" s="38"/>
+      <c r="Z81" s="38"/>
       <c r="AA81" s="19"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="36">
         <v>76.0</v>
       </c>
-      <c r="B82" s="45"/>
-      <c r="C82" s="46"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="47"/>
       <c r="D82" s="42"/>
       <c r="E82" s="36">
         <f t="shared" si="1"/>
@@ -5605,31 +6126,31 @@
       <c r="G82" s="37"/>
       <c r="H82" s="37"/>
       <c r="I82" s="36"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="43"/>
       <c r="L82" s="36"/>
       <c r="M82" s="36"/>
       <c r="N82" s="36"/>
       <c r="O82" s="36"/>
       <c r="P82" s="36"/>
-      <c r="Q82" s="39"/>
-      <c r="R82" s="39"/>
-      <c r="S82" s="39"/>
-      <c r="T82" s="39"/>
-      <c r="U82" s="39"/>
-      <c r="V82" s="39"/>
-      <c r="W82" s="39"/>
-      <c r="X82" s="39"/>
-      <c r="Y82" s="39"/>
-      <c r="Z82" s="39"/>
+      <c r="Q82" s="38"/>
+      <c r="R82" s="38"/>
+      <c r="S82" s="38"/>
+      <c r="T82" s="38"/>
+      <c r="U82" s="38"/>
+      <c r="V82" s="38"/>
+      <c r="W82" s="38"/>
+      <c r="X82" s="38"/>
+      <c r="Y82" s="38"/>
+      <c r="Z82" s="38"/>
       <c r="AA82" s="19"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="36">
         <v>77.0</v>
       </c>
-      <c r="B83" s="45"/>
-      <c r="C83" s="46"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="42"/>
       <c r="E83" s="36">
         <f t="shared" si="1"/>
@@ -5642,31 +6163,31 @@
       <c r="G83" s="37"/>
       <c r="H83" s="37"/>
       <c r="I83" s="36"/>
-      <c r="J83" s="38"/>
+      <c r="J83" s="43"/>
       <c r="K83" s="36"/>
-      <c r="L83" s="38"/>
+      <c r="L83" s="43"/>
       <c r="M83" s="36"/>
       <c r="N83" s="36"/>
       <c r="O83" s="36"/>
       <c r="P83" s="36"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
-      <c r="S83" s="39"/>
-      <c r="T83" s="39"/>
-      <c r="U83" s="39"/>
-      <c r="V83" s="39"/>
-      <c r="W83" s="39"/>
-      <c r="X83" s="39"/>
-      <c r="Y83" s="39"/>
-      <c r="Z83" s="39"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="38"/>
+      <c r="V83" s="38"/>
+      <c r="W83" s="38"/>
+      <c r="X83" s="38"/>
+      <c r="Y83" s="38"/>
+      <c r="Z83" s="38"/>
       <c r="AA83" s="19"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="36">
         <v>78.0</v>
       </c>
-      <c r="B84" s="45"/>
-      <c r="C84" s="46"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="42"/>
       <c r="E84" s="36">
         <f t="shared" si="1"/>
@@ -5681,29 +6202,29 @@
       <c r="I84" s="36"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
       <c r="N84" s="36"/>
       <c r="O84" s="36"/>
       <c r="P84" s="36"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="39"/>
-      <c r="S84" s="39"/>
-      <c r="T84" s="39"/>
-      <c r="U84" s="39"/>
-      <c r="V84" s="39"/>
-      <c r="W84" s="39"/>
-      <c r="X84" s="39"/>
-      <c r="Y84" s="39"/>
-      <c r="Z84" s="39"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="38"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="38"/>
+      <c r="X84" s="38"/>
+      <c r="Y84" s="38"/>
+      <c r="Z84" s="38"/>
       <c r="AA84" s="19"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="36">
         <v>79.0</v>
       </c>
-      <c r="B85" s="45"/>
-      <c r="C85" s="46"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="47"/>
       <c r="D85" s="42"/>
       <c r="E85" s="36">
         <f t="shared" si="1"/>
@@ -5715,32 +6236,32 @@
       </c>
       <c r="G85" s="37"/>
       <c r="H85" s="37"/>
-      <c r="I85" s="38"/>
+      <c r="I85" s="43"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="36"/>
       <c r="M85" s="36"/>
-      <c r="N85" s="38"/>
+      <c r="N85" s="43"/>
       <c r="O85" s="36"/>
       <c r="P85" s="36"/>
-      <c r="Q85" s="39"/>
-      <c r="R85" s="39"/>
-      <c r="S85" s="39"/>
-      <c r="T85" s="39"/>
-      <c r="U85" s="39"/>
-      <c r="V85" s="39"/>
-      <c r="W85" s="39"/>
-      <c r="X85" s="39"/>
-      <c r="Y85" s="39"/>
-      <c r="Z85" s="39"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="38"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="38"/>
+      <c r="X85" s="38"/>
+      <c r="Y85" s="38"/>
+      <c r="Z85" s="38"/>
       <c r="AA85" s="19"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="36">
         <v>80.0</v>
       </c>
-      <c r="B86" s="45"/>
-      <c r="C86" s="46"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="42"/>
       <c r="E86" s="36">
         <f t="shared" si="1"/>
@@ -5755,29 +6276,29 @@
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
-      <c r="L86" s="38"/>
+      <c r="L86" s="43"/>
       <c r="M86" s="36"/>
-      <c r="N86" s="38"/>
+      <c r="N86" s="43"/>
       <c r="O86" s="36"/>
       <c r="P86" s="36"/>
-      <c r="Q86" s="39"/>
-      <c r="R86" s="39"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="39"/>
-      <c r="U86" s="39"/>
-      <c r="V86" s="39"/>
-      <c r="W86" s="39"/>
-      <c r="X86" s="39"/>
-      <c r="Y86" s="39"/>
-      <c r="Z86" s="39"/>
+      <c r="Q86" s="38"/>
+      <c r="R86" s="38"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="38"/>
+      <c r="V86" s="38"/>
+      <c r="W86" s="38"/>
+      <c r="X86" s="38"/>
+      <c r="Y86" s="38"/>
+      <c r="Z86" s="38"/>
       <c r="AA86" s="19"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="36">
         <v>81.0</v>
       </c>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
       <c r="D87" s="42"/>
       <c r="E87" s="36">
         <f t="shared" si="1"/>
@@ -5797,24 +6318,24 @@
       <c r="N87" s="42"/>
       <c r="O87" s="42"/>
       <c r="P87" s="42"/>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="39"/>
-      <c r="S87" s="39"/>
-      <c r="T87" s="39"/>
-      <c r="U87" s="39"/>
-      <c r="V87" s="39"/>
-      <c r="W87" s="39"/>
-      <c r="X87" s="39"/>
-      <c r="Y87" s="39"/>
-      <c r="Z87" s="39"/>
+      <c r="Q87" s="38"/>
+      <c r="R87" s="38"/>
+      <c r="S87" s="38"/>
+      <c r="T87" s="38"/>
+      <c r="U87" s="38"/>
+      <c r="V87" s="38"/>
+      <c r="W87" s="38"/>
+      <c r="X87" s="38"/>
+      <c r="Y87" s="38"/>
+      <c r="Z87" s="38"/>
       <c r="AA87" s="19"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="36">
         <v>82.0</v>
       </c>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
       <c r="D88" s="42"/>
       <c r="E88" s="36">
         <f t="shared" si="1"/>
@@ -5834,24 +6355,24 @@
       <c r="N88" s="42"/>
       <c r="O88" s="42"/>
       <c r="P88" s="42"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
-      <c r="W88" s="39"/>
-      <c r="X88" s="39"/>
-      <c r="Y88" s="39"/>
-      <c r="Z88" s="39"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="38"/>
+      <c r="V88" s="38"/>
+      <c r="W88" s="38"/>
+      <c r="X88" s="38"/>
+      <c r="Y88" s="38"/>
+      <c r="Z88" s="38"/>
       <c r="AA88" s="19"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="36">
         <v>83.0</v>
       </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
       <c r="D89" s="42"/>
       <c r="E89" s="36">
         <f t="shared" si="1"/>
@@ -5871,24 +6392,24 @@
       <c r="N89" s="42"/>
       <c r="O89" s="42"/>
       <c r="P89" s="42"/>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="39"/>
-      <c r="S89" s="39"/>
-      <c r="T89" s="39"/>
-      <c r="U89" s="39"/>
-      <c r="V89" s="39"/>
-      <c r="W89" s="39"/>
-      <c r="X89" s="39"/>
-      <c r="Y89" s="39"/>
-      <c r="Z89" s="39"/>
+      <c r="Q89" s="38"/>
+      <c r="R89" s="38"/>
+      <c r="S89" s="38"/>
+      <c r="T89" s="38"/>
+      <c r="U89" s="38"/>
+      <c r="V89" s="38"/>
+      <c r="W89" s="38"/>
+      <c r="X89" s="38"/>
+      <c r="Y89" s="38"/>
+      <c r="Z89" s="38"/>
       <c r="AA89" s="19"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="36">
         <v>84.0</v>
       </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
       <c r="D90" s="42"/>
       <c r="E90" s="36">
         <f t="shared" si="1"/>
@@ -5908,24 +6429,24 @@
       <c r="N90" s="42"/>
       <c r="O90" s="42"/>
       <c r="P90" s="42"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39"/>
-      <c r="V90" s="39"/>
-      <c r="W90" s="39"/>
-      <c r="X90" s="39"/>
-      <c r="Y90" s="39"/>
-      <c r="Z90" s="39"/>
+      <c r="Q90" s="38"/>
+      <c r="R90" s="38"/>
+      <c r="S90" s="38"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="38"/>
+      <c r="V90" s="38"/>
+      <c r="W90" s="38"/>
+      <c r="X90" s="38"/>
+      <c r="Y90" s="38"/>
+      <c r="Z90" s="38"/>
       <c r="AA90" s="19"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="36">
         <v>85.0</v>
       </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="42"/>
       <c r="E91" s="36">
         <f t="shared" si="1"/>
@@ -5945,24 +6466,24 @@
       <c r="N91" s="42"/>
       <c r="O91" s="42"/>
       <c r="P91" s="42"/>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="39"/>
-      <c r="Y91" s="39"/>
-      <c r="Z91" s="39"/>
+      <c r="Q91" s="38"/>
+      <c r="R91" s="38"/>
+      <c r="S91" s="38"/>
+      <c r="T91" s="38"/>
+      <c r="U91" s="38"/>
+      <c r="V91" s="38"/>
+      <c r="W91" s="38"/>
+      <c r="X91" s="38"/>
+      <c r="Y91" s="38"/>
+      <c r="Z91" s="38"/>
       <c r="AA91" s="19"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="36">
         <v>86.0</v>
       </c>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
       <c r="D92" s="42"/>
       <c r="E92" s="36">
         <f t="shared" si="1"/>
@@ -5982,45 +6503,45 @@
       <c r="N92" s="42"/>
       <c r="O92" s="42"/>
       <c r="P92" s="42"/>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39"/>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
-      <c r="V92" s="39"/>
-      <c r="W92" s="39"/>
-      <c r="X92" s="39"/>
-      <c r="Y92" s="39"/>
-      <c r="Z92" s="39"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38"/>
+      <c r="S92" s="38"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="38"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="38"/>
+      <c r="X92" s="38"/>
+      <c r="Y92" s="38"/>
+      <c r="Z92" s="38"/>
       <c r="AA92" s="19"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="47"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48"/>
-      <c r="L93" s="48"/>
-      <c r="M93" s="48"/>
-      <c r="N93" s="48"/>
-      <c r="O93" s="48"/>
-      <c r="P93" s="48"/>
-      <c r="Q93" s="47"/>
-      <c r="R93" s="47"/>
-      <c r="S93" s="47"/>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47"/>
-      <c r="V93" s="47"/>
-      <c r="W93" s="47"/>
-      <c r="X93" s="47"/>
-      <c r="Y93" s="47"/>
-      <c r="Z93" s="47"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+      <c r="P93" s="49"/>
+      <c r="Q93" s="48"/>
+      <c r="R93" s="48"/>
+      <c r="S93" s="48"/>
+      <c r="T93" s="48"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="48"/>
+      <c r="W93" s="48"/>
+      <c r="X93" s="48"/>
+      <c r="Y93" s="48"/>
+      <c r="Z93" s="48"/>
       <c r="AA93" s="6"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
@@ -12511,7 +13032,7 @@
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:P92">
+  <conditionalFormatting sqref="G7:Z92">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH(("A"),(G7))))</formula>
     </cfRule>

--- a/attendance-files/TOC/TOC Attendance.xlsx
+++ b/attendance-files/TOC/TOC Attendance.xlsx
@@ -962,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1034,11 +1034,14 @@
     <xf borderId="16" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="16" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1347,8 +1350,10 @@
     <col customWidth="1" min="2" max="2" width="16.43"/>
     <col customWidth="1" min="3" max="3" width="29.57"/>
     <col customWidth="1" min="4" max="6" width="8.71"/>
-    <col customWidth="1" min="7" max="7" width="12.14"/>
-    <col customWidth="1" min="8" max="27" width="8.71"/>
+    <col customWidth="1" min="7" max="7" width="10.0"/>
+    <col customWidth="1" min="8" max="11" width="8.71"/>
+    <col customWidth="1" min="12" max="12" width="11.43"/>
+    <col customWidth="1" min="13" max="27" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1514,5034 +1519,5034 @@
         <v>13</v>
       </c>
       <c r="L5" s="25">
-        <v>45754.0</v>
+        <v>46119.0</v>
       </c>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
-      <c r="P5" s="25">
+      <c r="P5" s="27">
         <v>45815.0</v>
       </c>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
       <c r="AA5" s="6"/>
     </row>
     <row r="6" ht="42.75" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="30" t="s">
+      <c r="R6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="30" t="s">
+      <c r="S6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="30" t="s">
+      <c r="T6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="30" t="s">
+      <c r="U6" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="30" t="s">
+      <c r="V6" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="W6" s="30" t="s">
+      <c r="W6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="30" t="s">
+      <c r="X6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="30" t="s">
+      <c r="Y6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Z6" s="30" t="s">
+      <c r="Z6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AA6" s="31"/>
+      <c r="AA6" s="32"/>
     </row>
     <row r="7">
-      <c r="A7" s="32">
+      <c r="A7" s="33">
         <v>1.0</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36">
+      <c r="D7" s="36"/>
+      <c r="E7" s="37">
         <f t="shared" ref="E7:E92" si="1">COUNTIF(G7:Z7,"A")</f>
         <v>1</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="37">
         <f t="shared" ref="F7:F92" si="2">COUNTIF(G7:Z7,"P")</f>
         <v>9</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="37" t="s">
+      <c r="G7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
       <c r="AA7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="32">
+      <c r="A8" s="33">
         <v>2.0</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36">
+      <c r="D8" s="36"/>
+      <c r="E8" s="37">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="37">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G8" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="39" t="s">
+      <c r="G8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="37" t="s">
+      <c r="N8" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="P8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
       <c r="AA8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="32">
+      <c r="A9" s="33">
         <v>3.0</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36">
+      <c r="D9" s="36"/>
+      <c r="E9" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="39" t="s">
+      <c r="G9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="37" t="s">
+      <c r="L9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
       <c r="AA9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="32">
+      <c r="A10" s="33">
         <v>4.0</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36">
+      <c r="D10" s="36"/>
+      <c r="E10" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G10" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="39" t="s">
+      <c r="G10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="37" t="s">
+      <c r="N10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
       <c r="AA10" s="19"/>
     </row>
     <row r="11">
-      <c r="A11" s="32">
+      <c r="A11" s="33">
         <v>5.0</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36">
+      <c r="D11" s="36"/>
+      <c r="E11" s="37">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="37">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="39" t="s">
+      <c r="G11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" s="39" t="s">
+      <c r="O11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
       <c r="AA11" s="19"/>
     </row>
     <row r="12">
-      <c r="A12" s="32">
+      <c r="A12" s="33">
         <v>6.0</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36">
+      <c r="D12" s="36"/>
+      <c r="E12" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
       <c r="AA12" s="19"/>
     </row>
     <row r="13">
-      <c r="A13" s="32">
+      <c r="A13" s="33">
         <v>7.0</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36">
+      <c r="D13" s="36"/>
+      <c r="E13" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="39" t="s">
+      <c r="G13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
       <c r="AA13" s="19"/>
     </row>
     <row r="14">
-      <c r="A14" s="32">
+      <c r="A14" s="33">
         <v>8.0</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36">
+      <c r="D14" s="36"/>
+      <c r="E14" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" s="39" t="s">
+      <c r="G14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q14" s="40" t="s">
+      <c r="Q14" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
       <c r="AA14" s="19"/>
     </row>
     <row r="15">
-      <c r="A15" s="32">
+      <c r="A15" s="33">
         <v>9.0</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36">
+      <c r="D15" s="36"/>
+      <c r="E15" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15" s="39" t="s">
+      <c r="G15" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
       <c r="AA15" s="19"/>
     </row>
     <row r="16">
-      <c r="A16" s="32">
+      <c r="A16" s="33">
         <v>10.0</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36">
+      <c r="D16" s="36"/>
+      <c r="E16" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" s="37" t="s">
+      <c r="G16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="N16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
+      <c r="N16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
       <c r="AA16" s="19"/>
     </row>
     <row r="17">
-      <c r="A17" s="32">
+      <c r="A17" s="33">
         <v>11.0</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36">
+      <c r="D17" s="36"/>
+      <c r="E17" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G17" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="39" t="s">
+      <c r="G17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="N17" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="37" t="s">
+      <c r="N17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
+      <c r="P17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
       <c r="AA17" s="19"/>
     </row>
     <row r="18">
-      <c r="A18" s="32">
+      <c r="A18" s="33">
         <v>12.0</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36">
+      <c r="D18" s="36"/>
+      <c r="E18" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O18" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P18" s="39" t="s">
+      <c r="G18" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
       <c r="AA18" s="19"/>
     </row>
     <row r="19">
-      <c r="A19" s="32">
+      <c r="A19" s="33">
         <v>13.0</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36">
+      <c r="D19" s="36"/>
+      <c r="E19" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G19" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="37" t="s">
+      <c r="G19" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P19" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q19" s="40" t="s">
+      <c r="M19" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
       <c r="AA19" s="19"/>
     </row>
     <row r="20">
-      <c r="A20" s="32">
+      <c r="A20" s="33">
         <v>14.0</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36">
+      <c r="D20" s="36"/>
+      <c r="E20" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20" s="39" t="s">
+      <c r="G20" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q20" s="40" t="s">
+      <c r="Q20" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
       <c r="AA20" s="19"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="32">
+      <c r="A21" s="33">
         <v>15.0</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36">
+      <c r="D21" s="36"/>
+      <c r="E21" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q21" s="40" t="s">
+      <c r="G21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
       <c r="AA21" s="19"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="32">
+      <c r="A22" s="33">
         <v>16.0</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36">
+      <c r="D22" s="36"/>
+      <c r="E22" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
+      <c r="G22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
       <c r="AA22" s="19"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="32">
+      <c r="A23" s="33">
         <v>17.0</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36">
+      <c r="D23" s="36"/>
+      <c r="E23" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G23" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L23" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O23" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P23" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
+      <c r="G23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
       <c r="AA23" s="19"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="32">
+      <c r="A24" s="33">
         <v>18.0</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36">
+      <c r="D24" s="36"/>
+      <c r="E24" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G24" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="39" t="s">
+      <c r="G24" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="O24" s="37" t="s">
+      <c r="O24" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="P24" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
+      <c r="P24" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
       <c r="AA24" s="19"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="32">
+      <c r="A25" s="33">
         <v>19.0</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36">
+      <c r="D25" s="36"/>
+      <c r="E25" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G25" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O25" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P25" s="39" t="s">
+      <c r="G25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="38"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
       <c r="AA25" s="19"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="32">
+      <c r="A26" s="33">
         <v>20.0</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36">
+      <c r="D26" s="36"/>
+      <c r="E26" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G26" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L26" s="37" t="s">
+      <c r="G26" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M26" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O26" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P26" s="39" t="s">
+      <c r="M26" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
       <c r="AA26" s="19"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="32">
+      <c r="A27" s="33">
         <v>21.0</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36">
+      <c r="D27" s="36"/>
+      <c r="E27" s="37">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G27" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27" s="37" t="s">
+      <c r="G27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O27" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P27" s="39" t="s">
+      <c r="L27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q27" s="40" t="s">
+      <c r="Q27" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
       <c r="AA27" s="19"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="32">
+      <c r="A28" s="33">
         <v>22.0</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36">
+      <c r="D28" s="36"/>
+      <c r="E28" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G28" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O28" s="37" t="s">
+      <c r="G28" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="P28" s="39" t="s">
+      <c r="P28" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
       <c r="AA28" s="19"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="32">
+      <c r="A29" s="33">
         <v>23.0</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36">
+      <c r="D29" s="36"/>
+      <c r="E29" s="37">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G29" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="37" t="s">
+      <c r="G29" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="J29" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L29" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O29" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P29" s="39" t="s">
+      <c r="J29" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q29" s="40" t="s">
+      <c r="Q29" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
       <c r="AA29" s="19"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="32">
+      <c r="A30" s="33">
         <v>24.0</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36">
+      <c r="D30" s="36"/>
+      <c r="E30" s="37">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="37">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G30" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L30" s="37" t="s">
+      <c r="G30" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M30" s="39" t="s">
+      <c r="M30" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="N30" s="39" t="s">
+      <c r="N30" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P30" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
+      <c r="O30" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
       <c r="AA30" s="19"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="32">
+      <c r="A31" s="33">
         <v>25.0</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36">
+      <c r="D31" s="36"/>
+      <c r="E31" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G31" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" s="37" t="s">
+      <c r="G31" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="L31" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M31" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N31" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O31" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P31" s="39" t="s">
+      <c r="L31" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
       <c r="AA31" s="19"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="32">
+      <c r="A32" s="33">
         <v>26.0</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36">
+      <c r="D32" s="36"/>
+      <c r="E32" s="37">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G32" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="37" t="s">
+      <c r="G32" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="L32" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N32" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O32" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P32" s="39" t="s">
+      <c r="L32" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q32" s="40" t="s">
+      <c r="Q32" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
       <c r="AA32" s="19"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="32">
+      <c r="A33" s="33">
         <v>27.0</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36">
+      <c r="D33" s="36"/>
+      <c r="E33" s="37">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="37">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G33" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33" s="39" t="s">
+      <c r="G33" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="N33" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O33" s="37" t="s">
+      <c r="N33" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="P33" s="39" t="s">
+      <c r="P33" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
       <c r="AA33" s="19"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="32">
+      <c r="A34" s="33">
         <v>28.0</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36">
+      <c r="D34" s="36"/>
+      <c r="E34" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="39" t="s">
+      <c r="G34" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="N34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
+      <c r="N34" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
       <c r="AA34" s="19"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="32">
+      <c r="A35" s="33">
         <v>29.0</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="36">
+      <c r="D35" s="36"/>
+      <c r="E35" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G35" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K35" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L35" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M35" s="39" t="s">
+      <c r="G35" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="N35" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O35" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P35" s="39" t="s">
+      <c r="N35" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
       <c r="AA35" s="19"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="32">
+      <c r="A36" s="33">
         <v>30.0</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="36">
+      <c r="D36" s="36"/>
+      <c r="E36" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G36" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J36" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K36" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L36" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M36" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N36" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O36" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P36" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q36" s="40" t="s">
+      <c r="G36" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P36" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
       <c r="AA36" s="19"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="32">
+      <c r="A37" s="33">
         <v>31.0</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36">
+      <c r="D37" s="36"/>
+      <c r="E37" s="37">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="37">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G37" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="39" t="s">
+      <c r="G37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" s="37" t="s">
+      <c r="J37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="37" t="s">
+      <c r="L37" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="39" t="s">
+      <c r="M37" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="N37" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O37" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P37" s="39" t="s">
+      <c r="N37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
       <c r="AA37" s="19"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="32">
+      <c r="A38" s="33">
         <v>32.0</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="36">
+      <c r="D38" s="36"/>
+      <c r="E38" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G38" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K38" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L38" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M38" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N38" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O38" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P38" s="39" t="s">
+      <c r="G38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
       <c r="AA38" s="19"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="32">
+      <c r="A39" s="33">
         <v>33.0</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36">
+      <c r="D39" s="36"/>
+      <c r="E39" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G39" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J39" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K39" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L39" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M39" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N39" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O39" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P39" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q39" s="40" t="s">
+      <c r="G39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
       <c r="AA39" s="19"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="32">
+      <c r="A40" s="33">
         <v>34.0</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36">
+      <c r="D40" s="36"/>
+      <c r="E40" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G40" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J40" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K40" s="37" t="s">
+      <c r="G40" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="L40" s="37" t="s">
+      <c r="L40" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N40" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O40" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P40" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
+      <c r="M40" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P40" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
       <c r="AA40" s="19"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="32">
+      <c r="A41" s="33">
         <v>35.0</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36">
+      <c r="D41" s="36"/>
+      <c r="E41" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G41" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J41" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K41" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="L41" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M41" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N41" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O41" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P41" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
+      <c r="G41" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L41" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P41" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
       <c r="AA41" s="19"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="32">
+      <c r="A42" s="33">
         <v>36.0</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36">
+      <c r="D42" s="36"/>
+      <c r="E42" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G42" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J42" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K42" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="L42" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M42" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N42" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O42" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P42" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q42" s="40" t="s">
+      <c r="G42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q42" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
       <c r="AA42" s="19"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="32">
+      <c r="A43" s="33">
         <v>37.0</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="36">
+      <c r="D43" s="36"/>
+      <c r="E43" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G43" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J43" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K43" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="L43" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M43" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N43" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O43" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P43" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
+      <c r="G43" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O43" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
       <c r="AA43" s="19"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="32">
+      <c r="A44" s="33">
         <v>38.0</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="36">
+      <c r="D44" s="36"/>
+      <c r="E44" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G44" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J44" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K44" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="L44" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M44" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N44" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O44" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P44" s="39" t="s">
+      <c r="G44" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M44" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O44" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P44" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q44" s="40" t="s">
+      <c r="Q44" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="39"/>
       <c r="AA44" s="19"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="32">
+      <c r="A45" s="33">
         <v>39.0</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="36">
+      <c r="D45" s="36"/>
+      <c r="E45" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G45" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J45" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K45" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="L45" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M45" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N45" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O45" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P45" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
+      <c r="G45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K45" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="39"/>
       <c r="AA45" s="19"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="32">
+      <c r="A46" s="33">
         <v>40.0</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="36">
+      <c r="D46" s="36"/>
+      <c r="E46" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G46" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J46" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K46" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="L46" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M46" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N46" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O46" s="37" t="s">
+      <c r="G46" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M46" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O46" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="P46" s="39" t="s">
+      <c r="P46" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="38"/>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="38"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="39"/>
+      <c r="Z46" s="39"/>
       <c r="AA46" s="19"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="32">
+      <c r="A47" s="33">
         <v>41.0</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36">
+      <c r="D47" s="36"/>
+      <c r="E47" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G47" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I47" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J47" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K47" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="L47" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M47" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N47" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O47" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P47" s="39" t="s">
+      <c r="G47" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L47" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M47" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P47" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
       <c r="AA47" s="19"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="32">
+      <c r="A48" s="33">
         <v>42.0</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="36">
+      <c r="D48" s="36"/>
+      <c r="E48" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G48" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H48" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I48" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J48" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K48" s="37" t="s">
+      <c r="G48" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K48" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="L48" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M48" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N48" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O48" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P48" s="39" t="s">
+      <c r="L48" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M48" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N48" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O48" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P48" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="39"/>
       <c r="AA48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="32">
+      <c r="A49" s="33">
         <v>43.0</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="36">
+      <c r="D49" s="36"/>
+      <c r="E49" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F49" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G49" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J49" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K49" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L49" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M49" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N49" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O49" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P49" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
+      <c r="G49" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K49" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L49" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O49" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P49" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
       <c r="AA49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="32">
+      <c r="A50" s="33">
         <v>44.0</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="36">
+      <c r="D50" s="36"/>
+      <c r="E50" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F50" s="36">
+      <c r="F50" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G50" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H50" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J50" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K50" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L50" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M50" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N50" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O50" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P50" s="39" t="s">
+      <c r="G50" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K50" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L50" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M50" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N50" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O50" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P50" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="39"/>
       <c r="AA50" s="19"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="32">
+      <c r="A51" s="33">
         <v>45.0</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="36">
+      <c r="D51" s="36"/>
+      <c r="E51" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F51" s="36">
+      <c r="F51" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G51" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H51" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J51" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K51" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L51" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M51" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N51" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O51" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P51" s="39" t="s">
+      <c r="G51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O51" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P51" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
-      <c r="W51" s="38"/>
-      <c r="X51" s="38"/>
-      <c r="Y51" s="38"/>
-      <c r="Z51" s="38"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
+      <c r="Z51" s="39"/>
       <c r="AA51" s="19"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="32">
+      <c r="A52" s="33">
         <v>46.0</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="36">
+      <c r="D52" s="36"/>
+      <c r="E52" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G52" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H52" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I52" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J52" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K52" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L52" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M52" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N52" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O52" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P52" s="39" t="s">
+      <c r="G52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P52" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
-      <c r="W52" s="38"/>
-      <c r="X52" s="38"/>
-      <c r="Y52" s="38"/>
-      <c r="Z52" s="38"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="39"/>
       <c r="AA52" s="19"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="32">
+      <c r="A53" s="33">
         <v>47.0</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="36">
+      <c r="D53" s="36"/>
+      <c r="E53" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53" s="37">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G53" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H53" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I53" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J53" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K53" s="37" t="s">
+      <c r="G53" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K53" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="L53" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M53" s="39" t="s">
+      <c r="L53" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M53" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="N53" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O53" s="39" t="s">
+      <c r="N53" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O53" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="P53" s="39" t="s">
+      <c r="P53" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
-      <c r="X53" s="38"/>
-      <c r="Y53" s="38"/>
-      <c r="Z53" s="38"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39"/>
+      <c r="Z53" s="39"/>
       <c r="AA53" s="19"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="32">
+      <c r="A54" s="33">
         <v>48.0</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="36">
+      <c r="D54" s="36"/>
+      <c r="E54" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F54" s="36">
+      <c r="F54" s="37">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G54" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H54" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J54" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K54" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L54" s="37" t="s">
+      <c r="G54" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K54" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L54" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M54" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N54" s="39" t="s">
+      <c r="M54" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N54" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="O54" s="39" t="s">
+      <c r="O54" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="P54" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q54" s="40" t="s">
+      <c r="P54" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q54" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
-      <c r="X54" s="38"/>
-      <c r="Y54" s="38"/>
-      <c r="Z54" s="38"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="39"/>
+      <c r="Z54" s="39"/>
       <c r="AA54" s="19"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="32">
+      <c r="A55" s="33">
         <v>49.0</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="36">
+      <c r="D55" s="36"/>
+      <c r="E55" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F55" s="36">
+      <c r="F55" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G55" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I55" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J55" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K55" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L55" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M55" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N55" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O55" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P55" s="39" t="s">
+      <c r="G55" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K55" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L55" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M55" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N55" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O55" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P55" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="38"/>
-      <c r="X55" s="38"/>
-      <c r="Y55" s="38"/>
-      <c r="Z55" s="38"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="39"/>
       <c r="AA55" s="19"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="32">
+      <c r="A56" s="33">
         <v>50.0</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="36">
+      <c r="D56" s="36"/>
+      <c r="E56" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F56" s="36">
+      <c r="F56" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G56" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I56" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J56" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K56" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L56" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M56" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N56" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O56" s="39" t="s">
+      <c r="G56" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K56" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L56" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M56" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N56" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O56" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="P56" s="39" t="s">
+      <c r="P56" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="38"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="39"/>
+      <c r="Z56" s="39"/>
       <c r="AA56" s="19"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="32">
+      <c r="A57" s="33">
         <v>51.0</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="36">
+      <c r="D57" s="36"/>
+      <c r="E57" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F57" s="36">
+      <c r="F57" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G57" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I57" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J57" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K57" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L57" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M57" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N57" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O57" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P57" s="39" t="s">
+      <c r="G57" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K57" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L57" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M57" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N57" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O57" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P57" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q57" s="40" t="s">
+      <c r="Q57" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="38"/>
-      <c r="X57" s="38"/>
-      <c r="Y57" s="38"/>
-      <c r="Z57" s="38"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
+      <c r="Z57" s="39"/>
       <c r="AA57" s="19"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="32">
+      <c r="A58" s="33">
         <v>52.0</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="36">
+      <c r="D58" s="36"/>
+      <c r="E58" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F58" s="36">
+      <c r="F58" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G58" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H58" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I58" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J58" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K58" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L58" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M58" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N58" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O58" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P58" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q58" s="40" t="s">
+      <c r="G58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P58" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q58" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="38"/>
-      <c r="W58" s="38"/>
-      <c r="X58" s="38"/>
-      <c r="Y58" s="38"/>
-      <c r="Z58" s="38"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="39"/>
+      <c r="Z58" s="39"/>
       <c r="AA58" s="19"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="32">
+      <c r="A59" s="33">
         <v>53.0</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36">
+      <c r="D59" s="36"/>
+      <c r="E59" s="37">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F59" s="36">
+      <c r="F59" s="37">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G59" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H59" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I59" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J59" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K59" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L59" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M59" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N59" s="39" t="s">
+      <c r="G59" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K59" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L59" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M59" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N59" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="O59" s="39" t="s">
+      <c r="O59" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="P59" s="39" t="s">
+      <c r="P59" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="38"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="38"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
+      <c r="Z59" s="39"/>
       <c r="AA59" s="19"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="32">
+      <c r="A60" s="33">
         <v>54.0</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="D60" s="35"/>
-      <c r="E60" s="36">
+      <c r="D60" s="36"/>
+      <c r="E60" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F60" s="36">
+      <c r="F60" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G60" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I60" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J60" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K60" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L60" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M60" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N60" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O60" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P60" s="39" t="s">
+      <c r="G60" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L60" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M60" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N60" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O60" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P60" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q60" s="40" t="s">
+      <c r="Q60" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="38"/>
-      <c r="W60" s="38"/>
-      <c r="X60" s="38"/>
-      <c r="Y60" s="38"/>
-      <c r="Z60" s="38"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="39"/>
       <c r="AA60" s="19"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="32">
+      <c r="A61" s="33">
         <v>55.0</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="35"/>
-      <c r="E61" s="36">
+      <c r="D61" s="36"/>
+      <c r="E61" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F61" s="36">
+      <c r="F61" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G61" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H61" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I61" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J61" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K61" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L61" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M61" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N61" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O61" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P61" s="39" t="s">
+      <c r="G61" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K61" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L61" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M61" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N61" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O61" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P61" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
-      <c r="W61" s="38"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="38"/>
-      <c r="Z61" s="38"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="39"/>
+      <c r="Z61" s="39"/>
       <c r="AA61" s="19"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="32">
+      <c r="A62" s="33">
         <v>56.0</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="D62" s="35"/>
-      <c r="E62" s="36">
+      <c r="D62" s="36"/>
+      <c r="E62" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F62" s="36">
+      <c r="F62" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G62" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H62" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I62" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J62" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K62" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L62" s="37" t="s">
+      <c r="G62" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J62" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L62" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M62" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N62" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O62" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P62" s="39" t="s">
+      <c r="M62" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N62" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O62" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P62" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
-      <c r="W62" s="38"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="38"/>
-      <c r="Z62" s="38"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="39"/>
       <c r="AA62" s="19"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="32">
+      <c r="A63" s="33">
         <v>57.0</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="36">
+      <c r="D63" s="36"/>
+      <c r="E63" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F63" s="36">
+      <c r="F63" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G63" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H63" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I63" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J63" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K63" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L63" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M63" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N63" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O63" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P63" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q63" s="40" t="s">
+      <c r="G63" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J63" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K63" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L63" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M63" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N63" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O63" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P63" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q63" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="38"/>
-      <c r="X63" s="38"/>
-      <c r="Y63" s="38"/>
-      <c r="Z63" s="38"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="39"/>
+      <c r="Y63" s="39"/>
+      <c r="Z63" s="39"/>
       <c r="AA63" s="19"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="32">
+      <c r="A64" s="33">
         <v>58.0</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="36">
+      <c r="D64" s="36"/>
+      <c r="E64" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F64" s="36">
+      <c r="F64" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G64" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H64" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I64" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J64" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K64" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L64" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M64" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N64" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O64" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P64" s="39" t="s">
+      <c r="G64" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K64" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L64" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M64" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N64" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O64" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P64" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="38"/>
-      <c r="X64" s="38"/>
-      <c r="Y64" s="38"/>
-      <c r="Z64" s="38"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="39"/>
       <c r="AA64" s="19"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="32">
+      <c r="A65" s="33">
         <v>59.0</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="D65" s="35"/>
-      <c r="E65" s="36">
+      <c r="D65" s="36"/>
+      <c r="E65" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F65" s="36">
+      <c r="F65" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G65" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H65" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I65" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J65" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K65" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L65" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M65" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N65" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O65" s="39" t="s">
+      <c r="G65" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I65" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J65" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K65" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L65" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M65" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N65" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O65" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="P65" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q65" s="40" t="s">
+      <c r="P65" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q65" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="39"/>
+      <c r="Z65" s="39"/>
       <c r="AA65" s="19"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="32">
+      <c r="A66" s="33">
         <v>60.0</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="36">
+      <c r="D66" s="36"/>
+      <c r="E66" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F66" s="36">
+      <c r="F66" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G66" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H66" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I66" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J66" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K66" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L66" s="37" t="s">
+      <c r="G66" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J66" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K66" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L66" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M66" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N66" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O66" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P66" s="39" t="s">
+      <c r="M66" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N66" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O66" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P66" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="38"/>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="38"/>
-      <c r="Z66" s="38"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="39"/>
       <c r="AA66" s="19"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="32">
+      <c r="A67" s="33">
         <v>61.0</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D67" s="35"/>
-      <c r="E67" s="36">
+      <c r="D67" s="36"/>
+      <c r="E67" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F67" s="36">
+      <c r="F67" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G67" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H67" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I67" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J67" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K67" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L67" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M67" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N67" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O67" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P67" s="39" t="s">
+      <c r="G67" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J67" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L67" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M67" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N67" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P67" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="38"/>
-      <c r="W67" s="38"/>
-      <c r="X67" s="38"/>
-      <c r="Y67" s="38"/>
-      <c r="Z67" s="38"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="39"/>
+      <c r="Z67" s="39"/>
       <c r="AA67" s="19"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="32">
+      <c r="A68" s="33">
         <v>62.0</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="36">
+      <c r="D68" s="36"/>
+      <c r="E68" s="37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F68" s="36">
+      <c r="F68" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G68" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H68" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I68" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J68" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K68" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L68" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M68" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N68" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O68" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P68" s="39" t="s">
+      <c r="G68" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I68" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J68" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K68" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L68" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M68" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N68" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O68" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P68" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="38"/>
-      <c r="X68" s="38"/>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="38"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
+      <c r="Z68" s="39"/>
       <c r="AA68" s="19"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="32">
+      <c r="A69" s="33">
         <v>63.0</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="36">
+      <c r="D69" s="36"/>
+      <c r="E69" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F69" s="36">
+      <c r="F69" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G69" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H69" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I69" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J69" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K69" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L69" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M69" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N69" s="39" t="s">
+      <c r="G69" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I69" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L69" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M69" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N69" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="O69" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P69" s="39" t="s">
+      <c r="O69" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P69" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="38"/>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="38"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="39"/>
+      <c r="Z69" s="39"/>
       <c r="AA69" s="19"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="32">
+      <c r="A70" s="33">
         <v>64.0</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="36">
+      <c r="D70" s="36"/>
+      <c r="E70" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F70" s="36">
+      <c r="F70" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G70" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H70" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I70" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J70" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K70" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L70" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M70" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N70" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O70" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P70" s="39" t="s">
+      <c r="G70" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I70" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J70" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K70" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L70" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M70" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N70" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O70" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P70" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q70" s="40" t="s">
+      <c r="Q70" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="38"/>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="38"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+      <c r="W70" s="39"/>
+      <c r="X70" s="39"/>
+      <c r="Y70" s="39"/>
+      <c r="Z70" s="39"/>
       <c r="AA70" s="19"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="32">
+      <c r="A71" s="33">
         <v>65.0</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="36">
+      <c r="D71" s="36"/>
+      <c r="E71" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F71" s="36">
+      <c r="F71" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G71" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H71" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I71" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J71" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K71" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L71" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M71" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N71" s="39" t="s">
+      <c r="G71" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I71" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J71" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K71" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L71" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M71" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N71" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="O71" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P71" s="39" t="s">
+      <c r="O71" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P71" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
-      <c r="T71" s="38"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="38"/>
-      <c r="W71" s="38"/>
-      <c r="X71" s="38"/>
-      <c r="Y71" s="38"/>
-      <c r="Z71" s="38"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="39"/>
+      <c r="X71" s="39"/>
+      <c r="Y71" s="39"/>
+      <c r="Z71" s="39"/>
       <c r="AA71" s="19"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="32">
+      <c r="A72" s="33">
         <v>66.0</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="36">
+      <c r="D72" s="36"/>
+      <c r="E72" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F72" s="36">
+      <c r="F72" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G72" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H72" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I72" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J72" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K72" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L72" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M72" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N72" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O72" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P72" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="38"/>
-      <c r="Z72" s="38"/>
+      <c r="G72" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I72" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K72" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L72" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M72" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N72" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O72" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P72" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="39"/>
+      <c r="W72" s="39"/>
+      <c r="X72" s="39"/>
+      <c r="Y72" s="39"/>
+      <c r="Z72" s="39"/>
       <c r="AA72" s="19"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="32">
+      <c r="A73" s="33">
         <v>67.0</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="36">
+      <c r="D73" s="36"/>
+      <c r="E73" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F73" s="36">
+      <c r="F73" s="37">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G73" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H73" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I73" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J73" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K73" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L73" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M73" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N73" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O73" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P73" s="39" t="s">
+      <c r="G73" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I73" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J73" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L73" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M73" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N73" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O73" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P73" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q73" s="40" t="s">
+      <c r="Q73" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="R73" s="38"/>
-      <c r="S73" s="38"/>
-      <c r="T73" s="38"/>
-      <c r="U73" s="38"/>
-      <c r="V73" s="38"/>
-      <c r="W73" s="38"/>
-      <c r="X73" s="38"/>
-      <c r="Y73" s="38"/>
-      <c r="Z73" s="38"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="39"/>
+      <c r="W73" s="39"/>
+      <c r="X73" s="39"/>
+      <c r="Y73" s="39"/>
+      <c r="Z73" s="39"/>
       <c r="AA73" s="19"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="32">
+      <c r="A74" s="33">
         <v>68.0</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="D74" s="35"/>
-      <c r="E74" s="36">
+      <c r="D74" s="36"/>
+      <c r="E74" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F74" s="36">
+      <c r="F74" s="37">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G74" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H74" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I74" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J74" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K74" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L74" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M74" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N74" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O74" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="P74" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q74" s="38"/>
-      <c r="R74" s="38"/>
-      <c r="S74" s="38"/>
-      <c r="T74" s="38"/>
-      <c r="U74" s="38"/>
-      <c r="V74" s="38"/>
-      <c r="W74" s="38"/>
-      <c r="X74" s="38"/>
-      <c r="Y74" s="38"/>
-      <c r="Z74" s="38"/>
+      <c r="G74" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I74" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L74" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M74" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N74" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O74" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P74" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="39"/>
+      <c r="V74" s="39"/>
+      <c r="W74" s="39"/>
+      <c r="X74" s="39"/>
+      <c r="Y74" s="39"/>
+      <c r="Z74" s="39"/>
       <c r="AA74" s="19"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="32">
+      <c r="A75" s="33">
         <v>69.0</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="D75" s="35"/>
-      <c r="E75" s="36">
+      <c r="D75" s="36"/>
+      <c r="E75" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F75" s="36">
+      <c r="F75" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G75" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H75" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I75" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J75" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K75" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L75" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M75" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N75" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O75" s="39" t="s">
+      <c r="G75" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I75" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J75" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K75" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L75" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M75" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N75" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O75" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="P75" s="39" t="s">
+      <c r="P75" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q75" s="38"/>
-      <c r="R75" s="38"/>
-      <c r="S75" s="38"/>
-      <c r="T75" s="38"/>
-      <c r="U75" s="38"/>
-      <c r="V75" s="38"/>
-      <c r="W75" s="38"/>
-      <c r="X75" s="38"/>
-      <c r="Y75" s="38"/>
-      <c r="Z75" s="38"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="39"/>
+      <c r="X75" s="39"/>
+      <c r="Y75" s="39"/>
+      <c r="Z75" s="39"/>
       <c r="AA75" s="19"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="32">
+      <c r="A76" s="33">
         <v>70.0</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="D76" s="35"/>
-      <c r="E76" s="36">
+      <c r="D76" s="36"/>
+      <c r="E76" s="37">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F76" s="36">
+      <c r="F76" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G76" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H76" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I76" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J76" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K76" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="L76" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M76" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="N76" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="O76" s="39" t="s">
+      <c r="G76" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I76" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K76" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L76" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M76" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N76" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O76" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="P76" s="39" t="s">
+      <c r="P76" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Q76" s="38"/>
-      <c r="R76" s="38"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="38"/>
-      <c r="X76" s="38"/>
-      <c r="Y76" s="38"/>
-      <c r="Z76" s="38"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="39"/>
+      <c r="X76" s="39"/>
+      <c r="Y76" s="39"/>
+      <c r="Z76" s="39"/>
       <c r="AA76" s="19"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="32">
+      <c r="A77" s="33">
         <v>71.0</v>
       </c>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="36">
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F77" s="36">
+      <c r="F77" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
-      <c r="S77" s="38"/>
-      <c r="T77" s="38"/>
-      <c r="U77" s="38"/>
-      <c r="V77" s="38"/>
-      <c r="W77" s="38"/>
-      <c r="X77" s="38"/>
-      <c r="Y77" s="38"/>
-      <c r="Z77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
+      <c r="V77" s="39"/>
+      <c r="W77" s="39"/>
+      <c r="X77" s="39"/>
+      <c r="Y77" s="39"/>
+      <c r="Z77" s="39"/>
       <c r="AA77" s="19"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="36">
+      <c r="A78" s="37">
         <v>72.0</v>
       </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="36">
+      <c r="B78" s="45"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F78" s="36">
+      <c r="F78" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="38"/>
-      <c r="S78" s="38"/>
-      <c r="T78" s="38"/>
-      <c r="U78" s="38"/>
-      <c r="V78" s="38"/>
-      <c r="W78" s="38"/>
-      <c r="X78" s="38"/>
-      <c r="Y78" s="38"/>
-      <c r="Z78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39"/>
+      <c r="V78" s="39"/>
+      <c r="W78" s="39"/>
+      <c r="X78" s="39"/>
+      <c r="Y78" s="39"/>
+      <c r="Z78" s="39"/>
       <c r="AA78" s="19"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="36">
+      <c r="A79" s="37">
         <v>73.0</v>
       </c>
-      <c r="B79" s="46"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="36">
+      <c r="B79" s="47"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F79" s="36">
+      <c r="F79" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="38"/>
-      <c r="R79" s="38"/>
-      <c r="S79" s="38"/>
-      <c r="T79" s="38"/>
-      <c r="U79" s="38"/>
-      <c r="V79" s="38"/>
-      <c r="W79" s="38"/>
-      <c r="X79" s="38"/>
-      <c r="Y79" s="38"/>
-      <c r="Z79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39"/>
+      <c r="W79" s="39"/>
+      <c r="X79" s="39"/>
+      <c r="Y79" s="39"/>
+      <c r="Z79" s="39"/>
       <c r="AA79" s="19"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="36">
+      <c r="A80" s="37">
         <v>74.0</v>
       </c>
-      <c r="B80" s="46"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="36">
+      <c r="B80" s="47"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F80" s="36">
+      <c r="F80" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
-      <c r="Q80" s="38"/>
-      <c r="R80" s="38"/>
-      <c r="S80" s="38"/>
-      <c r="T80" s="38"/>
-      <c r="U80" s="38"/>
-      <c r="V80" s="38"/>
-      <c r="W80" s="38"/>
-      <c r="X80" s="38"/>
-      <c r="Y80" s="38"/>
-      <c r="Z80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="39"/>
+      <c r="V80" s="39"/>
+      <c r="W80" s="39"/>
+      <c r="X80" s="39"/>
+      <c r="Y80" s="39"/>
+      <c r="Z80" s="39"/>
       <c r="AA80" s="19"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="36">
+      <c r="A81" s="37">
         <v>75.0</v>
       </c>
-      <c r="B81" s="46"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="36">
+      <c r="B81" s="47"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F81" s="36">
+      <c r="F81" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-      <c r="S81" s="38"/>
-      <c r="T81" s="38"/>
-      <c r="U81" s="38"/>
-      <c r="V81" s="38"/>
-      <c r="W81" s="38"/>
-      <c r="X81" s="38"/>
-      <c r="Y81" s="38"/>
-      <c r="Z81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39"/>
+      <c r="W81" s="39"/>
+      <c r="X81" s="39"/>
+      <c r="Y81" s="39"/>
+      <c r="Z81" s="39"/>
       <c r="AA81" s="19"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="36">
+      <c r="A82" s="37">
         <v>76.0</v>
       </c>
-      <c r="B82" s="46"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="36">
+      <c r="B82" s="47"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F82" s="36">
+      <c r="F82" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="38"/>
-      <c r="R82" s="38"/>
-      <c r="S82" s="38"/>
-      <c r="T82" s="38"/>
-      <c r="U82" s="38"/>
-      <c r="V82" s="38"/>
-      <c r="W82" s="38"/>
-      <c r="X82" s="38"/>
-      <c r="Y82" s="38"/>
-      <c r="Z82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="39"/>
+      <c r="X82" s="39"/>
+      <c r="Y82" s="39"/>
+      <c r="Z82" s="39"/>
       <c r="AA82" s="19"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="36">
+      <c r="A83" s="37">
         <v>77.0</v>
       </c>
-      <c r="B83" s="46"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="36">
+      <c r="B83" s="47"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F83" s="36">
+      <c r="F83" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="43"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="38"/>
-      <c r="R83" s="38"/>
-      <c r="S83" s="38"/>
-      <c r="T83" s="38"/>
-      <c r="U83" s="38"/>
-      <c r="V83" s="38"/>
-      <c r="W83" s="38"/>
-      <c r="X83" s="38"/>
-      <c r="Y83" s="38"/>
-      <c r="Z83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+      <c r="V83" s="39"/>
+      <c r="W83" s="39"/>
+      <c r="X83" s="39"/>
+      <c r="Y83" s="39"/>
+      <c r="Z83" s="39"/>
       <c r="AA83" s="19"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="36">
+      <c r="A84" s="37">
         <v>78.0</v>
       </c>
-      <c r="B84" s="46"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="36">
+      <c r="B84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F84" s="36">
+      <c r="F84" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="43"/>
-      <c r="M84" s="43"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38"/>
-      <c r="S84" s="38"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="38"/>
-      <c r="W84" s="38"/>
-      <c r="X84" s="38"/>
-      <c r="Y84" s="38"/>
-      <c r="Z84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+      <c r="W84" s="39"/>
+      <c r="X84" s="39"/>
+      <c r="Y84" s="39"/>
+      <c r="Z84" s="39"/>
       <c r="AA84" s="19"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="36">
+      <c r="A85" s="37">
         <v>79.0</v>
       </c>
-      <c r="B85" s="46"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="36">
+      <c r="B85" s="47"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F85" s="36">
+      <c r="F85" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="43"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
-      <c r="S85" s="38"/>
-      <c r="T85" s="38"/>
-      <c r="U85" s="38"/>
-      <c r="V85" s="38"/>
-      <c r="W85" s="38"/>
-      <c r="X85" s="38"/>
-      <c r="Y85" s="38"/>
-      <c r="Z85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39"/>
+      <c r="U85" s="39"/>
+      <c r="V85" s="39"/>
+      <c r="W85" s="39"/>
+      <c r="X85" s="39"/>
+      <c r="Y85" s="39"/>
+      <c r="Z85" s="39"/>
       <c r="AA85" s="19"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="36">
+      <c r="A86" s="37">
         <v>80.0</v>
       </c>
-      <c r="B86" s="46"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="36">
+      <c r="B86" s="47"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F86" s="36">
+      <c r="F86" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="43"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="43"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="38"/>
-      <c r="R86" s="38"/>
-      <c r="S86" s="38"/>
-      <c r="T86" s="38"/>
-      <c r="U86" s="38"/>
-      <c r="V86" s="38"/>
-      <c r="W86" s="38"/>
-      <c r="X86" s="38"/>
-      <c r="Y86" s="38"/>
-      <c r="Z86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="39"/>
+      <c r="V86" s="39"/>
+      <c r="W86" s="39"/>
+      <c r="X86" s="39"/>
+      <c r="Y86" s="39"/>
+      <c r="Z86" s="39"/>
       <c r="AA86" s="19"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="36">
+      <c r="A87" s="37">
         <v>81.0</v>
       </c>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="36">
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F87" s="36">
+      <c r="F87" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="42"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="42"/>
-      <c r="M87" s="42"/>
-      <c r="N87" s="42"/>
-      <c r="O87" s="42"/>
-      <c r="P87" s="42"/>
-      <c r="Q87" s="38"/>
-      <c r="R87" s="38"/>
-      <c r="S87" s="38"/>
-      <c r="T87" s="38"/>
-      <c r="U87" s="38"/>
-      <c r="V87" s="38"/>
-      <c r="W87" s="38"/>
-      <c r="X87" s="38"/>
-      <c r="Y87" s="38"/>
-      <c r="Z87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="43"/>
+      <c r="Q87" s="39"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="39"/>
+      <c r="T87" s="39"/>
+      <c r="U87" s="39"/>
+      <c r="V87" s="39"/>
+      <c r="W87" s="39"/>
+      <c r="X87" s="39"/>
+      <c r="Y87" s="39"/>
+      <c r="Z87" s="39"/>
       <c r="AA87" s="19"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="36">
+      <c r="A88" s="37">
         <v>82.0</v>
       </c>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="36">
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F88" s="36">
+      <c r="F88" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="42"/>
-      <c r="M88" s="42"/>
-      <c r="N88" s="42"/>
-      <c r="O88" s="42"/>
-      <c r="P88" s="42"/>
-      <c r="Q88" s="38"/>
-      <c r="R88" s="38"/>
-      <c r="S88" s="38"/>
-      <c r="T88" s="38"/>
-      <c r="U88" s="38"/>
-      <c r="V88" s="38"/>
-      <c r="W88" s="38"/>
-      <c r="X88" s="38"/>
-      <c r="Y88" s="38"/>
-      <c r="Z88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="43"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+      <c r="W88" s="39"/>
+      <c r="X88" s="39"/>
+      <c r="Y88" s="39"/>
+      <c r="Z88" s="39"/>
       <c r="AA88" s="19"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="36">
+      <c r="A89" s="37">
         <v>83.0</v>
       </c>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="36">
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F89" s="36">
+      <c r="F89" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="42"/>
-      <c r="O89" s="42"/>
-      <c r="P89" s="42"/>
-      <c r="Q89" s="38"/>
-      <c r="R89" s="38"/>
-      <c r="S89" s="38"/>
-      <c r="T89" s="38"/>
-      <c r="U89" s="38"/>
-      <c r="V89" s="38"/>
-      <c r="W89" s="38"/>
-      <c r="X89" s="38"/>
-      <c r="Y89" s="38"/>
-      <c r="Z89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="43"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39"/>
+      <c r="W89" s="39"/>
+      <c r="X89" s="39"/>
+      <c r="Y89" s="39"/>
+      <c r="Z89" s="39"/>
       <c r="AA89" s="19"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="36">
+      <c r="A90" s="37">
         <v>84.0</v>
       </c>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="36">
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F90" s="36">
+      <c r="F90" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="42"/>
-      <c r="M90" s="42"/>
-      <c r="N90" s="42"/>
-      <c r="O90" s="42"/>
-      <c r="P90" s="42"/>
-      <c r="Q90" s="38"/>
-      <c r="R90" s="38"/>
-      <c r="S90" s="38"/>
-      <c r="T90" s="38"/>
-      <c r="U90" s="38"/>
-      <c r="V90" s="38"/>
-      <c r="W90" s="38"/>
-      <c r="X90" s="38"/>
-      <c r="Y90" s="38"/>
-      <c r="Z90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
+      <c r="P90" s="43"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="39"/>
+      <c r="X90" s="39"/>
+      <c r="Y90" s="39"/>
+      <c r="Z90" s="39"/>
       <c r="AA90" s="19"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="36">
+      <c r="A91" s="37">
         <v>85.0</v>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="36">
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F91" s="36">
+      <c r="F91" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="42"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="42"/>
-      <c r="M91" s="42"/>
-      <c r="N91" s="42"/>
-      <c r="O91" s="42"/>
-      <c r="P91" s="42"/>
-      <c r="Q91" s="38"/>
-      <c r="R91" s="38"/>
-      <c r="S91" s="38"/>
-      <c r="T91" s="38"/>
-      <c r="U91" s="38"/>
-      <c r="V91" s="38"/>
-      <c r="W91" s="38"/>
-      <c r="X91" s="38"/>
-      <c r="Y91" s="38"/>
-      <c r="Z91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="39"/>
+      <c r="Z91" s="39"/>
       <c r="AA91" s="19"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="36">
+      <c r="A92" s="37">
         <v>86.0</v>
       </c>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="36">
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F92" s="36">
+      <c r="F92" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="42"/>
-      <c r="L92" s="42"/>
-      <c r="M92" s="42"/>
-      <c r="N92" s="42"/>
-      <c r="O92" s="42"/>
-      <c r="P92" s="42"/>
-      <c r="Q92" s="38"/>
-      <c r="R92" s="38"/>
-      <c r="S92" s="38"/>
-      <c r="T92" s="38"/>
-      <c r="U92" s="38"/>
-      <c r="V92" s="38"/>
-      <c r="W92" s="38"/>
-      <c r="X92" s="38"/>
-      <c r="Y92" s="38"/>
-      <c r="Z92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="39"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="39"/>
+      <c r="V92" s="39"/>
+      <c r="W92" s="39"/>
+      <c r="X92" s="39"/>
+      <c r="Y92" s="39"/>
+      <c r="Z92" s="39"/>
       <c r="AA92" s="19"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="48"/>
-      <c r="B93" s="48"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="49"/>
-      <c r="N93" s="49"/>
-      <c r="O93" s="49"/>
-      <c r="P93" s="49"/>
-      <c r="Q93" s="48"/>
-      <c r="R93" s="48"/>
-      <c r="S93" s="48"/>
-      <c r="T93" s="48"/>
-      <c r="U93" s="48"/>
-      <c r="V93" s="48"/>
-      <c r="W93" s="48"/>
-      <c r="X93" s="48"/>
-      <c r="Y93" s="48"/>
-      <c r="Z93" s="48"/>
+      <c r="A93" s="49"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="50"/>
+      <c r="M93" s="50"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="50"/>
+      <c r="P93" s="50"/>
+      <c r="Q93" s="49"/>
+      <c r="R93" s="49"/>
+      <c r="S93" s="49"/>
+      <c r="T93" s="49"/>
+      <c r="U93" s="49"/>
+      <c r="V93" s="49"/>
+      <c r="W93" s="49"/>
+      <c r="X93" s="49"/>
+      <c r="Y93" s="49"/>
+      <c r="Z93" s="49"/>
       <c r="AA93" s="6"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
